--- a/django/mysite/gunosy/gunosy_data/testdata.xlsx
+++ b/django/mysite/gunosy/gunosy_data/testdata.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17927"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18067"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hirot\Documents\programing\PythonScripts\gunosy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hirot\Documents\programing\PythonScripts\homework_gunosy\django\mysite\gunosy\gunosy_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -646,8 +646,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.7" x14ac:dyDescent="0.85"/>
